--- a/Щенникова Е. Вконтакте тест кейс.xlsx
+++ b/Щенникова Е. Вконтакте тест кейс.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Тестировщик\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Repository1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4200" tabRatio="682" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7944" tabRatio="682" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
   <si>
     <t>passed</t>
   </si>
@@ -877,6 +877,9 @@
 Ввести телефон: 89217540000;
 Ввести пароль: 123456;
 Нажать кнопку "Войти";</t>
+  </si>
+  <si>
+    <t>Yandex</t>
   </si>
 </sst>
 </file>
@@ -1340,6 +1343,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1348,27 +1372,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1766,8 +1769,8 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1856,7 +1859,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$38,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1956,7 +1959,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="19" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="19" t="s">
@@ -1983,43 +1986,43 @@
     </row>
     <row r="6" spans="1:124" ht="24" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="56" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="56" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="49"/>
+      <c r="P6" s="56"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="49"/>
+      <c r="R6" s="56"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="49"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2029,29 +2032,29 @@
     </row>
     <row r="7" spans="1:124" ht="60" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="51"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="49"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="49"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="49"/>
+      <c r="P7" s="56"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="49"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="49"/>
+      <c r="T7" s="56"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2081,7 +2084,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -2117,7 +2122,9 @@
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -2287,7 +2294,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -2323,7 +2332,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -3983,12 +3994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3996,6 +4001,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N9 L8:L9 R8:R9 P8:P9 T8:T9 L11:L45 R11:R45 P11:P45 T11:T45 N11:N45">
